--- a/Power BI Design/關聯.xlsx
+++ b/Power BI Design/關聯.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0979\OneDrive\文件\GitHub\Topics\Power BI 設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0979\OneDrive\文件\GitHub\twPHIP2024\Power BI Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B872550-1ACF-4013-A38A-1A784E2C0FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA80F53-DB06-4142-91C9-FBFD93FF8206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="12444" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年份" sheetId="1" r:id="rId1"/>
     <sheet name="縣市別" sheetId="2" r:id="rId2"/>
-    <sheet name="愛滋類別" sheetId="7" r:id="rId3"/>
-    <sheet name="鄉鎮別" sheetId="5" r:id="rId4"/>
-    <sheet name="性別" sheetId="3" r:id="rId5"/>
-    <sheet name="年齡層" sheetId="4" r:id="rId6"/>
-    <sheet name="臺灣地區" sheetId="6" r:id="rId7"/>
+    <sheet name="縣市鄉鎮代碼" sheetId="8" r:id="rId3"/>
+    <sheet name="愛滋類別" sheetId="7" r:id="rId4"/>
+    <sheet name="鄉鎮別" sheetId="5" r:id="rId5"/>
+    <sheet name="性別" sheetId="3" r:id="rId6"/>
+    <sheet name="年齡層" sheetId="4" r:id="rId7"/>
+    <sheet name="臺灣地區" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">年齡層!$A$1:$B$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">年齡層!$A$1:$B$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="524">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1474,6 +1475,208 @@
   <si>
     <t>近五</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺東縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市名稱</t>
+  </si>
+  <si>
+    <t>縣市代碼</t>
+  </si>
+  <si>
+    <t>鄉鎮區名稱</t>
+  </si>
+  <si>
+    <t>鄉鎮區代碼</t>
+  </si>
+  <si>
+    <t>那瑪夏區</t>
+  </si>
+  <si>
+    <t>員林鎮</t>
+  </si>
+  <si>
+    <t>蘇西鄉</t>
+  </si>
+  <si>
+    <t>草草鄉</t>
+  </si>
+  <si>
+    <t>三地門</t>
+  </si>
+  <si>
+    <t>霧台</t>
+  </si>
+  <si>
+    <t>瑪家</t>
+  </si>
+  <si>
+    <t>九如</t>
+  </si>
+  <si>
+    <t>里港</t>
+  </si>
+  <si>
+    <t>高樹</t>
+  </si>
+  <si>
+    <t>鹽埔</t>
+  </si>
+  <si>
+    <t>長治</t>
+  </si>
+  <si>
+    <t>麗水</t>
+  </si>
+  <si>
+    <t>恆春</t>
+  </si>
+  <si>
+    <t>萬丹</t>
+  </si>
+  <si>
+    <t>潮州</t>
+  </si>
+  <si>
+    <t>東港</t>
+  </si>
+  <si>
+    <t>南州</t>
+  </si>
+  <si>
+    <t>林邊</t>
+  </si>
+  <si>
+    <t>東海</t>
+  </si>
+  <si>
+    <t>九塭</t>
+  </si>
+  <si>
+    <t>內埔</t>
+  </si>
+  <si>
+    <t>萬巒</t>
+  </si>
+  <si>
+    <t>竹田</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>建國</t>
+  </si>
+  <si>
+    <t>中正</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>民權</t>
+  </si>
+  <si>
+    <t>民生</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>自強</t>
+  </si>
+  <si>
+    <t>寶桑</t>
+  </si>
+  <si>
+    <t>新生</t>
+  </si>
+  <si>
+    <t>中心</t>
+  </si>
+  <si>
+    <t>馬蘭</t>
+  </si>
+  <si>
+    <t>富岡</t>
+  </si>
+  <si>
+    <t>富豐</t>
+  </si>
+  <si>
+    <t>南榮</t>
+  </si>
+  <si>
+    <t>岩灣</t>
+  </si>
+  <si>
+    <t>卑南</t>
+  </si>
+  <si>
+    <t>南王</t>
+  </si>
+  <si>
+    <t>新興</t>
+  </si>
+  <si>
+    <t>光明</t>
+  </si>
+  <si>
+    <t>豐年</t>
+  </si>
+  <si>
+    <t>豐樂</t>
+  </si>
+  <si>
+    <t>永樂</t>
+  </si>
+  <si>
+    <t>康樂</t>
+  </si>
+  <si>
+    <t>豐榮</t>
+  </si>
+  <si>
+    <t>豐谷</t>
+  </si>
+  <si>
+    <t>豐里</t>
+  </si>
+  <si>
+    <t>豐原</t>
+  </si>
+  <si>
+    <t>豐田</t>
+  </si>
+  <si>
+    <t>新園</t>
+  </si>
+  <si>
+    <t>建和</t>
+  </si>
+  <si>
+    <t>建興</t>
+  </si>
+  <si>
+    <t>建業</t>
+  </si>
+  <si>
+    <t>知本</t>
+  </si>
+  <si>
+    <t>建農</t>
+  </si>
+  <si>
+    <t>太麻里</t>
+  </si>
+  <si>
+    <t>大武</t>
+  </si>
+  <si>
+    <t>達仁</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1535,6 +1738,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1817,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1890,7 +2096,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2068,7 +2274,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="C16" t="s">
         <v>438</v>
@@ -2158,6 +2364,5497 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE739352-88EE-43F9-B1BF-72184810CE82}">
+  <dimension ref="A1:E384"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345:D384"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="5">
+        <v>65000100</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5">
+        <v>65000110</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="5">
+        <v>65000120</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="5">
+        <v>65000130</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="5">
+        <v>65000140</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="5">
+        <v>65000150</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="5">
+        <v>65000160</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="5">
+        <v>65000170</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="5">
+        <v>65000180</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="5">
+        <v>65000190</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="5">
+        <v>65000200</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="5">
+        <v>65000210</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="5">
+        <v>65000220</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="5">
+        <v>65000230</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="5">
+        <v>65000240</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="5">
+        <v>65000250</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5">
+        <v>65000260</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="5">
+        <v>65000270</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>65000</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="5">
+        <v>65000280</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="5">
+        <v>63000010</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="5">
+        <v>63000020</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="5">
+        <v>63000030</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="5">
+        <v>63000040</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="5">
+        <v>63000050</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="5">
+        <v>63000060</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="5">
+        <v>63000070</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="5">
+        <v>63000080</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="5">
+        <v>63000090</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="5">
+        <v>63000100</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="5">
+        <v>63000110</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5">
+        <v>63000</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="5">
+        <v>63000120</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="5">
+        <v>68000010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="5">
+        <v>68000020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="5">
+        <v>68000030</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="5">
+        <v>68000040</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="5">
+        <v>68000050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="5">
+        <v>68000060</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="5">
+        <v>68000070</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="5">
+        <v>68000080</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="5">
+        <v>68000090</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="5">
+        <v>68000100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="5">
+        <v>68000110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="5">
+        <v>68000120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="5">
+        <v>68000</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="5">
+        <v>68000130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="5">
+        <v>66000010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="5">
+        <v>66000020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="5">
+        <v>66000030</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="5">
+        <v>66000040</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="5">
+        <v>66000050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="5">
+        <v>66000060</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="5">
+        <v>66000070</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="5">
+        <v>66000080</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="5">
+        <v>66000090</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="5">
+        <v>66000100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="5">
+        <v>66000110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="5">
+        <v>66000120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="5">
+        <v>66000130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="5">
+        <v>66000140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="5">
+        <v>66000150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="5">
+        <v>66000160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="5">
+        <v>66000170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="5">
+        <v>66000180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="5">
+        <v>66000190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="5">
+        <v>66000200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="5">
+        <v>66000210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="5">
+        <v>66000220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="5">
+        <v>66000230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="5">
+        <v>66000240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="5">
+        <v>66000250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="5">
+        <v>66000260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="5">
+        <v>66000270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="5">
+        <v>66000280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="5">
+        <v>66000</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="5">
+        <v>66000290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="5">
+        <v>67000010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="5">
+        <v>67000020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="5">
+        <v>67000030</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="5">
+        <v>67000040</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="5">
+        <v>67000050</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="5">
+        <v>67000060</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="5">
+        <v>67000070</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="5">
+        <v>67000080</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="5">
+        <v>67000090</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="5">
+        <v>67000100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="5">
+        <v>67000110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="5">
+        <v>67000120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="5">
+        <v>67000130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="5">
+        <v>67000140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="5">
+        <v>67000150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" s="5">
+        <v>67000160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="5">
+        <v>67000170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" s="5">
+        <v>67000180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" s="5">
+        <v>67000190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="5">
+        <v>67000200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="5">
+        <v>67000210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" s="5">
+        <v>67000220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" s="5">
+        <v>67000230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="5">
+        <v>67000240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" s="5">
+        <v>67000250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" s="5">
+        <v>67000260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="5">
+        <v>67000270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D102" s="5">
+        <v>67000280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="5">
+        <v>67000290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104" s="5">
+        <v>67000300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D105" s="5">
+        <v>67000310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="5">
+        <v>67000320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="5">
+        <v>67000330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="5">
+        <v>67000340</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D109" s="5">
+        <v>67000350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" s="5">
+        <v>67000360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="5">
+        <v>67000</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111" s="5">
+        <v>67000370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D112" s="5">
+        <v>64000010</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" s="5">
+        <v>64000020</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="5">
+        <v>64000030</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D115" s="5">
+        <v>64000040</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" s="5">
+        <v>64000050</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117" s="5">
+        <v>64000060</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D118" s="5">
+        <v>64000070</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D119" s="5">
+        <v>64000080</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" s="5">
+        <v>64000090</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D121" s="5">
+        <v>64000100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D122" s="5">
+        <v>64000110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D123" s="5">
+        <v>64000120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D124" s="5">
+        <v>64000130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D125" s="5">
+        <v>64000140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D126" s="5">
+        <v>64000150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127" s="5">
+        <v>64000160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D128" s="5">
+        <v>64000170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D129" s="5">
+        <v>64000180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D130" s="5">
+        <v>64000190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D131" s="5">
+        <v>64000200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="5">
+        <v>64000210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D133" s="5">
+        <v>64000220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D134" s="5">
+        <v>64000230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" s="5">
+        <v>64000240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D136" s="5">
+        <v>64000250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D137" s="5">
+        <v>64000260</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D138" s="5">
+        <v>64000270</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D139" s="5">
+        <v>64000280</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D140" s="5">
+        <v>64000290</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" s="5">
+        <v>64000300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D142" s="5">
+        <v>64000310</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D143" s="5">
+        <v>64000320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D144" s="5">
+        <v>64000330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D145" s="5">
+        <v>64000340</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D146" s="5">
+        <v>64000350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" s="5">
+        <v>64000360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D148" s="5">
+        <v>64000370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="5">
+        <v>64000</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D149" s="5">
+        <v>64000380</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D150" s="5">
+        <v>10002010</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D151" s="5">
+        <v>10002020</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D152" s="5">
+        <v>10002030</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D153" s="5">
+        <v>10002040</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D154" s="5">
+        <v>10002050</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D155" s="5">
+        <v>10002060</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D156" s="5">
+        <v>10002070</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D157" s="5">
+        <v>10002080</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D158" s="5">
+        <v>10002090</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D159" s="5">
+        <v>10002100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D160" s="5">
+        <v>10002110</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D161" s="5">
+        <v>10002120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D162" s="5">
+        <v>10004010</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D163" s="5">
+        <v>10004020</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D164" s="5">
+        <v>10004030</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D165" s="5">
+        <v>10004040</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D166" s="5">
+        <v>10004050</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D167" s="5">
+        <v>10004060</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D168" s="5">
+        <v>10004070</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D169" s="5">
+        <v>10004080</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D170" s="5">
+        <v>10004090</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D171" s="5">
+        <v>10004100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D172" s="5">
+        <v>10004110</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D173" s="5">
+        <v>10004120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D174" s="5">
+        <v>10004130</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D175" s="5">
+        <v>10005010</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D176" s="5">
+        <v>10005020</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D177" s="5">
+        <v>10005030</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D178" s="5">
+        <v>10005040</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D179" s="5">
+        <v>10005050</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D180" s="5">
+        <v>10005060</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D181" s="5">
+        <v>10005070</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D182" s="5">
+        <v>10005080</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D183" s="5">
+        <v>10005090</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D184" s="5">
+        <v>10005100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D185" s="5">
+        <v>10005110</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D186" s="5">
+        <v>10005120</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D187" s="5">
+        <v>10005130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D188" s="5">
+        <v>10005140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D189" s="5">
+        <v>10005150</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D190" s="5">
+        <v>10005160</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D191" s="5">
+        <v>10005170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D192" s="5">
+        <v>10005180</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D193" s="5">
+        <v>10007010</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D194" s="5">
+        <v>10007020</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D195" s="5">
+        <v>10007030</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D196" s="5">
+        <v>10007040</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D197" s="5">
+        <v>10007050</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D198" s="5">
+        <v>10007060</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D199" s="5">
+        <v>10007070</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D200" s="5">
+        <v>10007080</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D201" s="5">
+        <v>10007090</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D202" s="5">
+        <v>10007100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D203" s="5">
+        <v>10007110</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D204" s="5">
+        <v>10007120</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D205" s="5">
+        <v>10007130</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D206" s="5">
+        <v>10007140</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D207" s="5">
+        <v>10007150</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D208" s="5">
+        <v>10007160</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D209" s="5">
+        <v>10007170</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D210" s="5">
+        <v>10007180</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D211" s="5">
+        <v>10007190</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D212" s="5">
+        <v>10007200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D213" s="5">
+        <v>10007210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D214" s="5">
+        <v>10007220</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D215" s="5">
+        <v>10007230</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B216" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D216" s="5">
+        <v>10007240</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D217" s="5">
+        <v>10007250</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D218" s="5">
+        <v>10008010</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D219" s="5">
+        <v>10008020</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D220" s="5">
+        <v>10008030</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D221" s="5">
+        <v>10008040</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D222" s="5">
+        <v>10008050</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B223" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D223" s="5">
+        <v>10008060</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B224" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D224" s="5">
+        <v>10008070</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D225" s="5">
+        <v>10008080</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B226" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D226" s="5">
+        <v>10008090</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B227" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D227" s="5">
+        <v>10008100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D228" s="5">
+        <v>10009010</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D229" s="5">
+        <v>10009020</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D230" s="5">
+        <v>10009030</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D231" s="5">
+        <v>10009040</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D232" s="5">
+        <v>10009050</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D233" s="5">
+        <v>10009060</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D234" s="5">
+        <v>10009070</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D235" s="5">
+        <v>10009080</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D236" s="5">
+        <v>10009090</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D237" s="5">
+        <v>10009100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D238" s="5">
+        <v>10009110</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D239" s="5">
+        <v>10009120</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D240" s="5">
+        <v>10009130</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D241" s="5">
+        <v>10009140</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D242" s="5">
+        <v>10009150</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D243" s="5">
+        <v>10009160</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D244" s="5">
+        <v>10009170</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B245" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D245" s="5">
+        <v>10009180</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B246" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D246" s="5">
+        <v>10009190</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D247" s="5">
+        <v>10010010</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D248" s="5">
+        <v>10010020</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D249" s="5">
+        <v>10010030</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D250" s="5">
+        <v>10010040</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D251" s="5">
+        <v>10010050</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D252" s="5">
+        <v>10010060</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D253" s="5">
+        <v>10010070</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D254" s="5">
+        <v>10010080</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B255" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D255" s="5">
+        <v>10010090</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D256" s="5">
+        <v>10010100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B257" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D257" s="5">
+        <v>10010110</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D258" s="5">
+        <v>10010120</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B259" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D259" s="5">
+        <v>10010130</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D260" s="5">
+        <v>10010140</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D261" s="5">
+        <v>10010150</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B262" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D262" s="5">
+        <v>10010160</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B263" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D263" s="5">
+        <v>10010170</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D264" s="5">
+        <v>10010180</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B265" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D265" s="5">
+        <v>10011010</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B266" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D266" s="5">
+        <v>10011020</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D267" s="5">
+        <v>10011030</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B268" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D268" s="5">
+        <v>10011040</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B269" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D269" s="5">
+        <v>10011050</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B270" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D270" s="5">
+        <v>10011060</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B271" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D271" s="5">
+        <v>10011070</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B272" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D272" s="5">
+        <v>10011080</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B273" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D273" s="5">
+        <v>10011090</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B274" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D274" s="5">
+        <v>10011100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B275" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D275" s="5">
+        <v>10011110</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B276" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D276" s="5">
+        <v>10011120</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B277" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D277" s="5">
+        <v>10011130</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B278" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D278" s="5">
+        <v>10011140</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D279" s="5">
+        <v>10011150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B280" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D280" s="5">
+        <v>10011160</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B281" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D281" s="5">
+        <v>10011170</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B282" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D282" s="5">
+        <v>10011180</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B283" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D283" s="5">
+        <v>10011190</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B284" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D284" s="5">
+        <v>10011200</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B285" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D285" s="5">
+        <v>10011210</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B286" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D286" s="5">
+        <v>10011220</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B287" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D287" s="5">
+        <v>10011230</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B288" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D288" s="5">
+        <v>10011240</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B289" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D289" s="5">
+        <v>10011250</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B290" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D290" s="5">
+        <v>10011260</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B291" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D291" s="5">
+        <v>10011270</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B292" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D292" s="5">
+        <v>10011280</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B293" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D293" s="5">
+        <v>10011290</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B294" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D294" s="5">
+        <v>10011300</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B295" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D295" s="5">
+        <v>10011310</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B296" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D296" s="5">
+        <v>10011320</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B297" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D297" s="5">
+        <v>10011330</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B298" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D298" s="5">
+        <v>10011340</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B299" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D299" s="5">
+        <v>10011350</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B300" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D300" s="5">
+        <v>10011360</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B301" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D301" s="5">
+        <v>10011370</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B302" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D302" s="5">
+        <v>10011380</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B303" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D303" s="5">
+        <v>10011390</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B304" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D304" s="5">
+        <v>10011400</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B305" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D305" s="5">
+        <v>10014010</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B306" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D306" s="5">
+        <v>10014020</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B307" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D307" s="5">
+        <v>10014030</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B308" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D308" s="5">
+        <v>10014040</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B309" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D309" s="5">
+        <v>10014050</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B310" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D310" s="5">
+        <v>10014060</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B311" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D311" s="5">
+        <v>10014070</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B312" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D312" s="5">
+        <v>10014080</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B313" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D313" s="5">
+        <v>10014090</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B314" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D314" s="5">
+        <v>10014100</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B315" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D315" s="5">
+        <v>10014110</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B316" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D316" s="5">
+        <v>10014120</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B317" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D317" s="5">
+        <v>10014130</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B318" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D318" s="5">
+        <v>10014140</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B319" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D319" s="5">
+        <v>10014150</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B320" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D320" s="5">
+        <v>10014160</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B321" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D321" s="5">
+        <v>10014170</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B322" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D322" s="5">
+        <v>10014180</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B323" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D323" s="5">
+        <v>10014190</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B324" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D324" s="5">
+        <v>10014200</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B325" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D325" s="5">
+        <v>10014210</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B326" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D326" s="5">
+        <v>10014220</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B327" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D327" s="5">
+        <v>10014230</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B328" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D328" s="5">
+        <v>10014240</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B329" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D329" s="5">
+        <v>10014250</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B330" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D330" s="5">
+        <v>10014260</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B331" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D331" s="5">
+        <v>10014270</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B332" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D332" s="5">
+        <v>10014280</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B333" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D333" s="5">
+        <v>10014290</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B334" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D334" s="5">
+        <v>10014300</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B335" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D335" s="5">
+        <v>10014310</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B336" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D336" s="5">
+        <v>10014320</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B337" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D337" s="5">
+        <v>10014330</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B338" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D338" s="5">
+        <v>10014340</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B339" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D339" s="5">
+        <v>10014350</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B340" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D340" s="5">
+        <v>10014360</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B341" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D341" s="5">
+        <v>10014370</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B342" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D342" s="5">
+        <v>10014380</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B343" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D343" s="5">
+        <v>10014390</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B344" s="5">
+        <v>10014</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D344" s="5">
+        <v>10014400</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B345" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D345" s="5">
+        <v>10015010</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B346" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D346" s="5">
+        <v>10015020</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B347" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D347" s="5">
+        <v>10015030</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B348" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D348" s="5">
+        <v>10015040</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B349" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D349" s="5">
+        <v>10015050</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B350" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D350" s="5">
+        <v>10015060</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B351" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D351" s="5">
+        <v>10015070</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B352" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D352" s="5">
+        <v>10015080</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B353" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D353" s="5">
+        <v>10015090</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B354" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D354" s="5">
+        <v>10015100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B355" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D355" s="5">
+        <v>10015110</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B356" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D356" s="5">
+        <v>10015120</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B357" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D357" s="5">
+        <v>10015130</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B358" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D358" s="5">
+        <v>10015140</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B359" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D359" s="5">
+        <v>10015150</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B360" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D360" s="5">
+        <v>10015160</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B361" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D361" s="5">
+        <v>10015170</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B362" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D362" s="5">
+        <v>10015180</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B363" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D363" s="5">
+        <v>10015190</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B364" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D364" s="5">
+        <v>10015200</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B365" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D365" s="5">
+        <v>10015210</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B366" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D366" s="5">
+        <v>10015220</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B367" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D367" s="5">
+        <v>10015230</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D368" s="5">
+        <v>10015240</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B369" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D369" s="5">
+        <v>10015250</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B370" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D370" s="5">
+        <v>10015260</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B371" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D371" s="5">
+        <v>10015270</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B372" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D372" s="5">
+        <v>10015280</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B373" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D373" s="5">
+        <v>10015290</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B374" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D374" s="5">
+        <v>10015300</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B375" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D375" s="5">
+        <v>10015310</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B376" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D376" s="5">
+        <v>10015320</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B377" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D377" s="5">
+        <v>10015330</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B378" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D378" s="5">
+        <v>10015340</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B379" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D379" s="5">
+        <v>10015350</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B380" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D380" s="5">
+        <v>10015360</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B381" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D381" s="5">
+        <v>10015370</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B382" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D382" s="5">
+        <v>10015380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B383" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D383" s="5">
+        <v>10015390</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B384" s="5">
+        <v>10015</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D384" s="5">
+        <v>10015400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0DCA73-FC70-433C-8050-B779AFFF0BAC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2197,7 +7894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A47A103-5887-478E-9929-CB34A134DFFF}">
   <dimension ref="A1:B1841"/>
   <sheetViews>
@@ -9581,7 +15278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D44ED6-60FC-4349-AF5B-E75E3F1B8AA7}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -9621,7 +15318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E44A5CD-2D44-489B-AC82-1E379EE67B66}">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -9936,7 +15633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112941B6-79CD-4E7D-A866-44C5265C9CAF}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/Power BI Design/關聯.xlsx
+++ b/Power BI Design/關聯.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0979\OneDrive\文件\GitHub\twPHIP2024\Power BI Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA80F53-DB06-4142-91C9-FBFD93FF8206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF9E2E3-15F6-4E8A-A5BB-7E7D6F6E780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="1908" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年份" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="467">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1505,178 +1505,7 @@
     <t>草草鄉</t>
   </si>
   <si>
-    <t>三地門</t>
-  </si>
-  <si>
-    <t>霧台</t>
-  </si>
-  <si>
-    <t>瑪家</t>
-  </si>
-  <si>
-    <t>九如</t>
-  </si>
-  <si>
-    <t>里港</t>
-  </si>
-  <si>
-    <t>高樹</t>
-  </si>
-  <si>
-    <t>鹽埔</t>
-  </si>
-  <si>
-    <t>長治</t>
-  </si>
-  <si>
-    <t>麗水</t>
-  </si>
-  <si>
-    <t>恆春</t>
-  </si>
-  <si>
-    <t>萬丹</t>
-  </si>
-  <si>
-    <t>潮州</t>
-  </si>
-  <si>
-    <t>東港</t>
-  </si>
-  <si>
-    <t>南州</t>
-  </si>
-  <si>
-    <t>林邊</t>
-  </si>
-  <si>
-    <t>東海</t>
-  </si>
-  <si>
-    <t>九塭</t>
-  </si>
-  <si>
-    <t>內埔</t>
-  </si>
-  <si>
-    <t>萬巒</t>
-  </si>
-  <si>
-    <t>竹田</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>建國</t>
-  </si>
-  <si>
-    <t>中正</t>
-  </si>
-  <si>
-    <t>中山</t>
-  </si>
-  <si>
-    <t>民權</t>
-  </si>
-  <si>
-    <t>民生</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>自強</t>
-  </si>
-  <si>
-    <t>寶桑</t>
-  </si>
-  <si>
-    <t>新生</t>
-  </si>
-  <si>
-    <t>中心</t>
-  </si>
-  <si>
-    <t>馬蘭</t>
-  </si>
-  <si>
-    <t>富岡</t>
-  </si>
-  <si>
-    <t>富豐</t>
-  </si>
-  <si>
-    <t>南榮</t>
-  </si>
-  <si>
-    <t>岩灣</t>
-  </si>
-  <si>
-    <t>卑南</t>
-  </si>
-  <si>
-    <t>南王</t>
-  </si>
-  <si>
-    <t>新興</t>
-  </si>
-  <si>
-    <t>光明</t>
-  </si>
-  <si>
-    <t>豐年</t>
-  </si>
-  <si>
-    <t>豐樂</t>
-  </si>
-  <si>
-    <t>永樂</t>
-  </si>
-  <si>
-    <t>康樂</t>
-  </si>
-  <si>
-    <t>豐榮</t>
-  </si>
-  <si>
-    <t>豐谷</t>
-  </si>
-  <si>
-    <t>豐里</t>
-  </si>
-  <si>
-    <t>豐原</t>
-  </si>
-  <si>
-    <t>豐田</t>
-  </si>
-  <si>
-    <t>新園</t>
-  </si>
-  <si>
-    <t>建和</t>
-  </si>
-  <si>
-    <t>建興</t>
-  </si>
-  <si>
-    <t>建業</t>
-  </si>
-  <si>
-    <t>知本</t>
-  </si>
-  <si>
-    <t>建農</t>
-  </si>
-  <si>
-    <t>太麻里</t>
-  </si>
-  <si>
-    <t>大武</t>
-  </si>
-  <si>
-    <t>達仁</t>
+    <t>連江縣</t>
   </si>
 </sst>
 </file>
@@ -2367,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE739352-88EE-43F9-B1BF-72184810CE82}">
   <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345:D384"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="B327" sqref="B327:D354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6169,563 +5998,563 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="5" t="s">
+      <c r="A265" t="s">
         <v>21</v>
       </c>
-      <c r="B265" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C265" s="5" t="s">
+      <c r="B265">
+        <v>10013</v>
+      </c>
+      <c r="C265" t="s">
         <v>348</v>
       </c>
-      <c r="D265" s="5">
-        <v>10011010</v>
+      <c r="D265">
+        <v>10013010</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="5" t="s">
+      <c r="A266" t="s">
         <v>21</v>
       </c>
-      <c r="B266" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D266" s="5">
-        <v>10011020</v>
+      <c r="B266">
+        <v>10013</v>
+      </c>
+      <c r="C266" t="s">
+        <v>373</v>
+      </c>
+      <c r="D266">
+        <v>10013020</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="5" t="s">
+      <c r="A267" t="s">
         <v>21</v>
       </c>
-      <c r="B267" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D267" s="5">
-        <v>10011030</v>
+      <c r="B267">
+        <v>10013</v>
+      </c>
+      <c r="C267" t="s">
+        <v>374</v>
+      </c>
+      <c r="D267">
+        <v>10013030</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="5" t="s">
+      <c r="A268" t="s">
         <v>21</v>
       </c>
-      <c r="B268" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D268" s="5">
-        <v>10011040</v>
+      <c r="B268">
+        <v>10013</v>
+      </c>
+      <c r="C268" t="s">
+        <v>375</v>
+      </c>
+      <c r="D268">
+        <v>10013040</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="5" t="s">
+      <c r="A269" t="s">
         <v>21</v>
       </c>
-      <c r="B269" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="D269" s="5">
-        <v>10011050</v>
+      <c r="B269">
+        <v>10013</v>
+      </c>
+      <c r="C269" t="s">
+        <v>355</v>
+      </c>
+      <c r="D269">
+        <v>10013050</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="5" t="s">
+      <c r="A270" t="s">
         <v>21</v>
       </c>
-      <c r="B270" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D270" s="5">
-        <v>10011060</v>
+      <c r="B270">
+        <v>10013</v>
+      </c>
+      <c r="C270" t="s">
+        <v>356</v>
+      </c>
+      <c r="D270">
+        <v>10013060</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="5" t="s">
+      <c r="A271" t="s">
         <v>21</v>
       </c>
-      <c r="B271" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="D271" s="5">
-        <v>10011070</v>
+      <c r="B271">
+        <v>10013</v>
+      </c>
+      <c r="C271" t="s">
+        <v>358</v>
+      </c>
+      <c r="D271">
+        <v>10013070</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="5" t="s">
+      <c r="A272" t="s">
         <v>21</v>
       </c>
-      <c r="B272" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="D272" s="5">
-        <v>10011080</v>
+      <c r="B272">
+        <v>10013</v>
+      </c>
+      <c r="C272" t="s">
+        <v>357</v>
+      </c>
+      <c r="D272">
+        <v>10013080</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="5" t="s">
+      <c r="A273" t="s">
         <v>21</v>
       </c>
-      <c r="B273" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D273" s="5">
-        <v>10011090</v>
+      <c r="B273">
+        <v>10013</v>
+      </c>
+      <c r="C273" t="s">
+        <v>353</v>
+      </c>
+      <c r="D273">
+        <v>10013090</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="5" t="s">
+      <c r="A274" t="s">
         <v>21</v>
       </c>
-      <c r="B274" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D274" s="5">
-        <v>10011100</v>
+      <c r="B274">
+        <v>10013</v>
+      </c>
+      <c r="C274" t="s">
+        <v>354</v>
+      </c>
+      <c r="D274">
+        <v>10013100</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="5" t="s">
+      <c r="A275" t="s">
         <v>21</v>
       </c>
-      <c r="B275" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D275" s="5">
-        <v>10011110</v>
+      <c r="B275">
+        <v>10013</v>
+      </c>
+      <c r="C275" t="s">
+        <v>361</v>
+      </c>
+      <c r="D275">
+        <v>10013110</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="5" t="s">
+      <c r="A276" t="s">
         <v>21</v>
       </c>
-      <c r="B276" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D276" s="5">
-        <v>10011120</v>
+      <c r="B276">
+        <v>10013</v>
+      </c>
+      <c r="C276" t="s">
+        <v>360</v>
+      </c>
+      <c r="D276">
+        <v>10013120</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="5" t="s">
+      <c r="A277" t="s">
         <v>21</v>
       </c>
-      <c r="B277" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D277" s="5">
-        <v>10011130</v>
+      <c r="B277">
+        <v>10013</v>
+      </c>
+      <c r="C277" t="s">
+        <v>352</v>
+      </c>
+      <c r="D277">
+        <v>10013130</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="5" t="s">
+      <c r="A278" t="s">
         <v>21</v>
       </c>
-      <c r="B278" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D278" s="5">
-        <v>10011140</v>
+      <c r="B278">
+        <v>10013</v>
+      </c>
+      <c r="C278" t="s">
+        <v>349</v>
+      </c>
+      <c r="D278">
+        <v>10013140</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="5" t="s">
+      <c r="A279" t="s">
         <v>21</v>
       </c>
-      <c r="B279" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D279" s="5">
-        <v>10011150</v>
+      <c r="B279">
+        <v>10013</v>
+      </c>
+      <c r="C279" t="s">
+        <v>376</v>
+      </c>
+      <c r="D279">
+        <v>10013150</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="5" t="s">
+      <c r="A280" t="s">
         <v>21</v>
       </c>
-      <c r="B280" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="D280" s="5">
-        <v>10011160</v>
+      <c r="B280">
+        <v>10013</v>
+      </c>
+      <c r="C280" t="s">
+        <v>377</v>
+      </c>
+      <c r="D280">
+        <v>10013160</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="5" t="s">
+      <c r="A281" t="s">
         <v>21</v>
       </c>
-      <c r="B281" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D281" s="5">
-        <v>10011170</v>
+      <c r="B281">
+        <v>10013</v>
+      </c>
+      <c r="C281" t="s">
+        <v>359</v>
+      </c>
+      <c r="D281">
+        <v>10013170</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="5" t="s">
+      <c r="A282" t="s">
         <v>21</v>
       </c>
-      <c r="B282" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D282" s="5">
-        <v>10011180</v>
+      <c r="B282">
+        <v>10013</v>
+      </c>
+      <c r="C282" t="s">
+        <v>365</v>
+      </c>
+      <c r="D282">
+        <v>10013180</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="5" t="s">
+      <c r="A283" t="s">
         <v>21</v>
       </c>
-      <c r="B283" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D283" s="5">
-        <v>10011190</v>
+      <c r="B283">
+        <v>10013</v>
+      </c>
+      <c r="C283" t="s">
+        <v>362</v>
+      </c>
+      <c r="D283">
+        <v>10013190</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="5" t="s">
+      <c r="A284" t="s">
         <v>21</v>
       </c>
-      <c r="B284" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D284" s="5">
-        <v>10011200</v>
+      <c r="B284">
+        <v>10013</v>
+      </c>
+      <c r="C284" t="s">
+        <v>367</v>
+      </c>
+      <c r="D284">
+        <v>10013200</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="5" t="s">
+      <c r="A285" t="s">
         <v>21</v>
       </c>
-      <c r="B285" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D285" s="5">
-        <v>10011210</v>
+      <c r="B285">
+        <v>10013</v>
+      </c>
+      <c r="C285" t="s">
+        <v>366</v>
+      </c>
+      <c r="D285">
+        <v>10013210</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="5" t="s">
+      <c r="A286" t="s">
         <v>21</v>
       </c>
-      <c r="B286" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D286" s="5">
-        <v>10011220</v>
+      <c r="B286">
+        <v>10013</v>
+      </c>
+      <c r="C286" t="s">
+        <v>350</v>
+      </c>
+      <c r="D286">
+        <v>10013220</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="5" t="s">
+      <c r="A287" t="s">
         <v>21</v>
       </c>
-      <c r="B287" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D287" s="5">
-        <v>10011230</v>
+      <c r="B287">
+        <v>10013</v>
+      </c>
+      <c r="C287" t="s">
+        <v>369</v>
+      </c>
+      <c r="D287">
+        <v>10013230</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="5" t="s">
+      <c r="A288" t="s">
         <v>21</v>
       </c>
-      <c r="B288" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D288" s="5">
-        <v>10011240</v>
+      <c r="B288">
+        <v>10013</v>
+      </c>
+      <c r="C288" t="s">
+        <v>368</v>
+      </c>
+      <c r="D288">
+        <v>10013240</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="5" t="s">
+      <c r="A289" t="s">
         <v>21</v>
       </c>
-      <c r="B289" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D289" s="5">
-        <v>10011250</v>
+      <c r="B289">
+        <v>10013</v>
+      </c>
+      <c r="C289" t="s">
+        <v>364</v>
+      </c>
+      <c r="D289">
+        <v>10013250</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="5" t="s">
+      <c r="A290" t="s">
         <v>21</v>
       </c>
-      <c r="B290" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="D290" s="5">
-        <v>10011260</v>
+      <c r="B290">
+        <v>10013</v>
+      </c>
+      <c r="C290" t="s">
+        <v>363</v>
+      </c>
+      <c r="D290">
+        <v>10013260</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="5" t="s">
+      <c r="A291" t="s">
         <v>21</v>
       </c>
-      <c r="B291" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D291" s="5">
-        <v>10011270</v>
+      <c r="B291">
+        <v>10013</v>
+      </c>
+      <c r="C291" t="s">
+        <v>372</v>
+      </c>
+      <c r="D291">
+        <v>10013270</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="5" t="s">
+      <c r="A292" t="s">
         <v>21</v>
       </c>
-      <c r="B292" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D292" s="5">
-        <v>10011280</v>
+      <c r="B292">
+        <v>10013</v>
+      </c>
+      <c r="C292" t="s">
+        <v>378</v>
+      </c>
+      <c r="D292">
+        <v>10013280</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="5" t="s">
+      <c r="A293" t="s">
         <v>21</v>
       </c>
-      <c r="B293" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D293" s="5">
-        <v>10011290</v>
+      <c r="B293">
+        <v>10013</v>
+      </c>
+      <c r="C293" t="s">
+        <v>379</v>
+      </c>
+      <c r="D293">
+        <v>10013290</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="5" t="s">
+      <c r="A294" t="s">
         <v>21</v>
       </c>
-      <c r="B294" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D294" s="5">
-        <v>10011300</v>
+      <c r="B294">
+        <v>10013</v>
+      </c>
+      <c r="C294" t="s">
+        <v>370</v>
+      </c>
+      <c r="D294">
+        <v>10013300</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="5" t="s">
+      <c r="A295" t="s">
         <v>21</v>
       </c>
-      <c r="B295" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D295" s="5">
-        <v>10011310</v>
+      <c r="B295">
+        <v>10013</v>
+      </c>
+      <c r="C295" t="s">
+        <v>380</v>
+      </c>
+      <c r="D295">
+        <v>10013310</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="5" t="s">
+      <c r="A296" t="s">
         <v>21</v>
       </c>
-      <c r="B296" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D296" s="5">
-        <v>10011320</v>
+      <c r="B296">
+        <v>10013</v>
+      </c>
+      <c r="C296" t="s">
+        <v>351</v>
+      </c>
+      <c r="D296">
+        <v>10013320</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="5" t="s">
+      <c r="A297" t="s">
         <v>21</v>
       </c>
-      <c r="B297" s="5">
-        <v>10011</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D297" s="5">
-        <v>10011330</v>
+      <c r="B297">
+        <v>10013</v>
+      </c>
+      <c r="C297" t="s">
+        <v>371</v>
+      </c>
+      <c r="D297">
+        <v>10013330</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B298" s="5">
-        <v>10011</v>
+        <v>10014</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="D298" s="5">
-        <v>10011340</v>
+        <v>10014010</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B299" s="5">
-        <v>10011</v>
+        <v>10014</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>471</v>
+        <v>391</v>
       </c>
       <c r="D299" s="5">
-        <v>10011350</v>
+        <v>10014020</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B300" s="5">
-        <v>10011</v>
+        <v>10014</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="D300" s="5">
-        <v>10011360</v>
+        <v>10014030</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B301" s="5">
-        <v>10011</v>
+        <v>10014</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>469</v>
+        <v>392</v>
       </c>
       <c r="D301" s="5">
-        <v>10011370</v>
+        <v>10014040</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B302" s="5">
-        <v>10011</v>
+        <v>10014</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>468</v>
+        <v>384</v>
       </c>
       <c r="D302" s="5">
-        <v>10011380</v>
+        <v>10014050</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B303" s="5">
-        <v>10011</v>
+        <v>10014</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="D303" s="5">
-        <v>10011390</v>
+        <v>10014060</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B304" s="5">
-        <v>10011</v>
+        <v>10014</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>466</v>
+        <v>383</v>
       </c>
       <c r="D304" s="5">
-        <v>10011400</v>
+        <v>10014070</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -6736,10 +6565,10 @@
         <v>10014</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D305" s="5">
-        <v>10014010</v>
+        <v>10014080</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -6750,10 +6579,10 @@
         <v>10014</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>486</v>
+        <v>390</v>
       </c>
       <c r="D306" s="5">
-        <v>10014020</v>
+        <v>10014090</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -6764,10 +6593,10 @@
         <v>10014</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>487</v>
+        <v>387</v>
       </c>
       <c r="D307" s="5">
-        <v>10014030</v>
+        <v>10014100</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -6778,10 +6607,10 @@
         <v>10014</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>488</v>
+        <v>382</v>
       </c>
       <c r="D308" s="5">
-        <v>10014040</v>
+        <v>10014110</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -6792,10 +6621,10 @@
         <v>10014</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>489</v>
+        <v>388</v>
       </c>
       <c r="D309" s="5">
-        <v>10014050</v>
+        <v>10014120</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -6806,10 +6635,10 @@
         <v>10014</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
       <c r="D310" s="5">
-        <v>10014060</v>
+        <v>10014130</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -6820,10 +6649,10 @@
         <v>10014</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>491</v>
+        <v>395</v>
       </c>
       <c r="D311" s="5">
-        <v>10014070</v>
+        <v>10014140</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -6834,10 +6663,10 @@
         <v>10014</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
       <c r="D312" s="5">
-        <v>10014080</v>
+        <v>10014150</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -6848,1005 +6677,765 @@
         <v>10014</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
       <c r="D313" s="5">
-        <v>10014090</v>
+        <v>10014160</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B314" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>494</v>
+        <v>397</v>
       </c>
       <c r="D314" s="5">
-        <v>10014100</v>
+        <v>10015010</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B315" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="D315" s="5">
-        <v>10014110</v>
+        <v>10015020</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B316" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="D316" s="5">
-        <v>10014120</v>
+        <v>10015030</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B317" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>497</v>
+        <v>401</v>
       </c>
       <c r="D317" s="5">
-        <v>10014130</v>
+        <v>10015040</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B318" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>498</v>
+        <v>402</v>
       </c>
       <c r="D318" s="5">
-        <v>10014140</v>
+        <v>10015050</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B319" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>499</v>
+        <v>398</v>
       </c>
       <c r="D319" s="5">
-        <v>10014150</v>
+        <v>10015060</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B320" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="D320" s="5">
-        <v>10014160</v>
+        <v>10015070</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B321" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>501</v>
+        <v>404</v>
       </c>
       <c r="D321" s="5">
-        <v>10014170</v>
+        <v>10015080</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B322" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>502</v>
+        <v>405</v>
       </c>
       <c r="D322" s="5">
-        <v>10014180</v>
+        <v>10015090</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B323" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>503</v>
+        <v>408</v>
       </c>
       <c r="D323" s="5">
-        <v>10014190</v>
+        <v>10015100</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B324" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>481</v>
+        <v>399</v>
       </c>
       <c r="D324" s="5">
-        <v>10014200</v>
+        <v>10015110</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B325" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>504</v>
+        <v>409</v>
       </c>
       <c r="D325" s="5">
-        <v>10014210</v>
+        <v>10015120</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B326" s="5">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>505</v>
+        <v>406</v>
       </c>
       <c r="D326" s="5">
-        <v>10014220</v>
+        <v>10015130</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B327" s="5">
-        <v>10014</v>
+        <v>10016</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>506</v>
+        <v>410</v>
       </c>
       <c r="D327" s="5">
-        <v>10014230</v>
+        <v>10016010</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B328" s="5">
-        <v>10014</v>
+        <v>10016</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="D328" s="5">
-        <v>10014240</v>
+        <v>10016020</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B329" s="5">
-        <v>10014</v>
+        <v>10016</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>508</v>
+        <v>414</v>
       </c>
       <c r="D329" s="5">
-        <v>10014250</v>
+        <v>10016030</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B330" s="5">
-        <v>10014</v>
+        <v>10016</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
       <c r="D330" s="5">
-        <v>10014260</v>
+        <v>10016040</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B331" s="5">
-        <v>10014</v>
+        <v>10016</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>510</v>
+        <v>412</v>
       </c>
       <c r="D331" s="5">
-        <v>10014270</v>
+        <v>10016050</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B332" s="5">
-        <v>10014</v>
+        <v>10016</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
       <c r="D332" s="5">
-        <v>10014280</v>
+        <v>10016060</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B333" s="5">
-        <v>10014</v>
+        <v>10017</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>512</v>
+        <v>107</v>
       </c>
       <c r="D333" s="5">
-        <v>10014290</v>
+        <v>10017010</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B334" s="5">
-        <v>10014</v>
+        <v>10017</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>513</v>
+        <v>104</v>
       </c>
       <c r="D334" s="5">
-        <v>10014300</v>
+        <v>10017020</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B335" s="5">
-        <v>10014</v>
+        <v>10017</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>514</v>
+        <v>418</v>
       </c>
       <c r="D335" s="5">
-        <v>10014310</v>
+        <v>10017030</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B336" s="5">
-        <v>10014</v>
+        <v>10017</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>515</v>
+        <v>106</v>
       </c>
       <c r="D336" s="5">
-        <v>10014320</v>
+        <v>10017040</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B337" s="5">
-        <v>10014</v>
+        <v>10017</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
       <c r="D337" s="5">
-        <v>10014330</v>
+        <v>10017050</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B338" s="5">
-        <v>10014</v>
+        <v>10017</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="D338" s="5">
-        <v>10014340</v>
+        <v>10017060</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B339" s="5">
-        <v>10014</v>
+        <v>10017</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>518</v>
+        <v>416</v>
       </c>
       <c r="D339" s="5">
-        <v>10014350</v>
+        <v>10017070</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B340" s="5">
-        <v>10014</v>
+        <v>10018</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>519</v>
+        <v>129</v>
       </c>
       <c r="D340" s="5">
-        <v>10014360</v>
+        <v>10018010</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B341" s="5">
-        <v>10014</v>
+        <v>10018</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>520</v>
+        <v>132</v>
       </c>
       <c r="D341" s="5">
-        <v>10014370</v>
+        <v>10018020</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B342" s="5">
-        <v>10014</v>
+        <v>10018</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>521</v>
+        <v>420</v>
       </c>
       <c r="D342" s="5">
-        <v>10014380</v>
+        <v>10018030</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B343" s="5">
-        <v>10014</v>
+        <v>10020</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>522</v>
+        <v>129</v>
       </c>
       <c r="D343" s="5">
-        <v>10014390</v>
+        <v>10020010</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B344" s="5">
-        <v>10014</v>
+        <v>10020</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>523</v>
+        <v>131</v>
       </c>
       <c r="D344" s="5">
-        <v>10014400</v>
+        <v>10020020</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B345" s="5">
-        <v>10015</v>
+        <v>9020</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="D345" s="5">
-        <v>10015010</v>
+        <v>9020010</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B346" s="5">
-        <v>10015</v>
+        <v>9020</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="D346" s="5">
-        <v>10015020</v>
+        <v>9020020</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B347" s="5">
-        <v>10015</v>
+        <v>9020</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>487</v>
+        <v>424</v>
       </c>
       <c r="D347" s="5">
-        <v>10015030</v>
+        <v>9020030</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B348" s="5">
-        <v>10015</v>
+        <v>9020</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="D348" s="5">
-        <v>10015040</v>
+        <v>9020040</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B349" s="5">
-        <v>10015</v>
+        <v>9020</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="D349" s="5">
-        <v>10015050</v>
+        <v>9020050</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B350" s="5">
-        <v>10015</v>
+        <v>9020</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="D350" s="5">
-        <v>10015060</v>
+        <v>9020060</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
-        <v>23</v>
+        <v>466</v>
       </c>
       <c r="B351" s="5">
-        <v>10015</v>
+        <v>9007</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="D351" s="5">
-        <v>10015070</v>
+        <v>9007010</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
-        <v>23</v>
+        <v>466</v>
       </c>
       <c r="B352" s="5">
-        <v>10015</v>
+        <v>9007</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="D352" s="5">
-        <v>10015080</v>
+        <v>9007020</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
-        <v>23</v>
+        <v>466</v>
       </c>
       <c r="B353" s="5">
-        <v>10015</v>
+        <v>9007</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>493</v>
+        <v>429</v>
       </c>
       <c r="D353" s="5">
-        <v>10015090</v>
+        <v>9007030</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
-        <v>23</v>
+        <v>466</v>
       </c>
       <c r="B354" s="5">
-        <v>10015</v>
+        <v>9007</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>494</v>
+        <v>430</v>
       </c>
       <c r="D354" s="5">
-        <v>10015100</v>
+        <v>9007040</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B355" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D355" s="5">
-        <v>10015110</v>
-      </c>
+      <c r="A355" s="5"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B356" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D356" s="5">
-        <v>10015120</v>
-      </c>
+      <c r="A356" s="5"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B357" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="D357" s="5">
-        <v>10015130</v>
-      </c>
+      <c r="A357" s="5"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A358" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B358" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D358" s="5">
-        <v>10015140</v>
-      </c>
+      <c r="A358" s="5"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B359" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D359" s="5">
-        <v>10015150</v>
-      </c>
+      <c r="A359" s="5"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B360" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="D360" s="5">
-        <v>10015160</v>
-      </c>
+      <c r="A360" s="5"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B361" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D361" s="5">
-        <v>10015170</v>
-      </c>
+      <c r="A361" s="5"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B362" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="D362" s="5">
-        <v>10015180</v>
-      </c>
+      <c r="A362" s="5"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B363" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D363" s="5">
-        <v>10015190</v>
-      </c>
+      <c r="A363" s="5"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A364" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B364" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D364" s="5">
-        <v>10015200</v>
-      </c>
+      <c r="A364" s="5"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B365" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D365" s="5">
-        <v>10015210</v>
-      </c>
+      <c r="A365" s="5"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A366" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B366" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D366" s="5">
-        <v>10015220</v>
-      </c>
+      <c r="A366" s="5"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B367" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="D367" s="5">
-        <v>10015230</v>
-      </c>
+      <c r="A367" s="5"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B368" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="D368" s="5">
-        <v>10015240</v>
-      </c>
+      <c r="A368" s="5"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="5"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B369" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D369" s="5">
-        <v>10015250</v>
-      </c>
+      <c r="A369" s="5"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B370" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D370" s="5">
-        <v>10015260</v>
-      </c>
+      <c r="A370" s="5"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A371" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B371" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D371" s="5">
-        <v>10015270</v>
-      </c>
+      <c r="A371" s="5"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="5"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A372" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B372" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D372" s="5">
-        <v>10015280</v>
-      </c>
+      <c r="A372" s="5"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="5"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B373" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D373" s="5">
-        <v>10015290</v>
-      </c>
+      <c r="A373" s="5"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="5"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A374" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B374" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C374" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D374" s="5">
-        <v>10015300</v>
-      </c>
+      <c r="A374" s="5"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B375" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="D375" s="5">
-        <v>10015310</v>
-      </c>
+      <c r="A375" s="5"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B376" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C376" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D376" s="5">
-        <v>10015320</v>
-      </c>
+      <c r="A376" s="5"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B377" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D377" s="5">
-        <v>10015330</v>
-      </c>
+      <c r="A377" s="5"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B378" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C378" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="D378" s="5">
-        <v>10015340</v>
-      </c>
+      <c r="A378" s="5"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A379" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B379" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C379" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="D379" s="5">
-        <v>10015350</v>
-      </c>
+      <c r="A379" s="5"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B380" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D380" s="5">
-        <v>10015360</v>
-      </c>
+      <c r="A380" s="5"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B381" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D381" s="5">
-        <v>10015370</v>
-      </c>
+      <c r="A381" s="5"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A382" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B382" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D382" s="5">
-        <v>10015380</v>
-      </c>
+      <c r="A382" s="5"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A383" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B383" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="D383" s="5">
-        <v>10015390</v>
-      </c>
+      <c r="A383" s="5"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A384" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B384" s="5">
-        <v>10015</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D384" s="5">
-        <v>10015400</v>
-      </c>
+      <c r="A384" s="5"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="5"/>
+      <c r="D384" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
